--- a/Team-Data/2013-14/2-23-2013-14.xlsx
+++ b/Team-Data/2013-14/2-23-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -780,10 +847,10 @@
         <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
@@ -813,13 +880,13 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>-3.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
         <v>27</v>
@@ -941,7 +1008,7 @@
         <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
         <v>11</v>
@@ -962,7 +1029,7 @@
         <v>25</v>
       </c>
       <c r="AP3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>12</v>
@@ -971,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="AS3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
         <v>14</v>
@@ -983,13 +1050,13 @@
         <v>24</v>
       </c>
       <c r="AW3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX3" t="n">
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
         <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>0.481</v>
+        <v>0.472</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1051,46 +1118,46 @@
         <v>78.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M4" t="n">
         <v>21.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.365</v>
+        <v>0.362</v>
       </c>
       <c r="O4" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P4" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q4" t="n">
         <v>0.762</v>
       </c>
       <c r="R4" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S4" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T4" t="n">
         <v>39</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y4" t="n">
         <v>4.1</v>
@@ -1099,25 +1166,25 @@
         <v>21.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD4" t="n">
         <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
         <v>8</v>
@@ -1132,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM4" t="n">
         <v>14</v>
@@ -1141,16 +1208,16 @@
         <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1159,10 +1226,10 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>13</v>
@@ -1183,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
         <v>18</v>
@@ -1332,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
         <v>7</v>
@@ -1341,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="AU5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -1394,67 +1461,67 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" t="n">
         <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.527</v>
+        <v>0.537</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="n">
         <v>80.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.341</v>
+        <v>0.343</v>
       </c>
       <c r="O6" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="R6" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S6" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T6" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U6" t="n">
         <v>22.3</v>
       </c>
       <c r="V6" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
         <v>6.3</v>
@@ -1463,22 +1530,22 @@
         <v>19.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.5</v>
+        <v>92.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1514,10 +1581,10 @@
         <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1529,7 +1596,7 @@
         <v>26</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX6" t="n">
         <v>7</v>
@@ -1538,16 +1605,16 @@
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA6" t="n">
         <v>9</v>
       </c>
       <c r="BB6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -1576,85 +1643,85 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" t="n">
-        <v>0.386</v>
+        <v>0.393</v>
       </c>
       <c r="H7" t="n">
         <v>48.8</v>
       </c>
       <c r="I7" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J7" t="n">
-        <v>85.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K7" t="n">
         <v>0.424</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M7" t="n">
         <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.351</v>
+        <v>0.355</v>
       </c>
       <c r="O7" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P7" t="n">
         <v>23.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.745</v>
+        <v>0.743</v>
       </c>
       <c r="R7" t="n">
         <v>12.8</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U7" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V7" t="n">
         <v>14.5</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA7" t="n">
         <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.7</v>
+        <v>97</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
@@ -1669,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>5</v>
@@ -1678,13 +1745,13 @@
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>15</v>
@@ -1693,13 +1760,13 @@
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT7" t="n">
         <v>10</v>
@@ -1708,16 +1775,16 @@
         <v>27</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ7" t="n">
         <v>14</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1857,10 +1924,10 @@
         <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
@@ -1887,13 +1954,13 @@
         <v>28</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
         <v>24</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -1940,55 +2007,55 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="n">
         <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>0.455</v>
+        <v>0.463</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J9" t="n">
         <v>84.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.445</v>
+        <v>0.447</v>
       </c>
       <c r="L9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.362</v>
+        <v>0.359</v>
       </c>
       <c r="O9" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P9" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="R9" t="n">
         <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T9" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U9" t="n">
         <v>21.8</v>
@@ -1997,34 +2064,34 @@
         <v>15.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA9" t="n">
         <v>21.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
         <v>19</v>
@@ -2042,7 +2109,7 @@
         <v>18</v>
       </c>
       <c r="AL9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2051,7 +2118,7 @@
         <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>6</v>
@@ -2075,16 +2142,16 @@
         <v>25</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
@@ -2093,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2227,7 +2294,7 @@
         <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
@@ -2251,10 +2318,10 @@
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW10" t="n">
         <v>3</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>4.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2406,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
@@ -2421,10 +2488,10 @@
         <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -2486,85 +2553,85 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.679</v>
+        <v>0.673</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J12" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L12" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="N12" t="n">
         <v>0.353</v>
       </c>
       <c r="O12" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="P12" t="n">
         <v>31.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S12" t="n">
         <v>34.1</v>
       </c>
       <c r="T12" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U12" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V12" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X12" t="n">
         <v>5.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
         <v>20.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.1</v>
+        <v>105.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2576,25 +2643,25 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
       </c>
       <c r="AK12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL12" t="n">
         <v>4</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>6</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2606,7 +2673,7 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2627,10 +2694,10 @@
         <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>7.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2755,10 +2822,10 @@
         <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>21</v>
@@ -2776,7 +2843,7 @@
         <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2803,7 +2870,7 @@
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.655</v>
+        <v>0.649</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2871,22 +2938,22 @@
         <v>81.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L14" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O14" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="P14" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="Q14" t="n">
         <v>0.727</v>
@@ -2913,16 +2980,16 @@
         <v>4.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z14" t="n">
         <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.1</v>
+        <v>106.7</v>
       </c>
       <c r="AC14" t="n">
         <v>5.9</v>
@@ -2943,7 +3010,7 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2952,13 +3019,13 @@
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
         <v>1</v>
@@ -2976,16 +3043,16 @@
         <v>13</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
       </c>
       <c r="AV14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW14" t="n">
         <v>8</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>9</v>
       </c>
       <c r="AX14" t="n">
         <v>20</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="n">
         <v>19</v>
       </c>
       <c r="F15" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,16 +3117,16 @@
         <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K15" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L15" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="N15" t="n">
         <v>0.373</v>
@@ -3068,28 +3135,28 @@
         <v>16.8</v>
       </c>
       <c r="P15" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.753</v>
+        <v>0.755</v>
       </c>
       <c r="R15" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T15" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U15" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V15" t="n">
         <v>15.4</v>
       </c>
       <c r="W15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X15" t="n">
         <v>5.5</v>
@@ -3110,16 +3177,16 @@
         <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
@@ -3131,13 +3198,13 @@
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
         <v>4</v>
       </c>
       <c r="AM15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN15" t="n">
         <v>8</v>
@@ -3161,7 +3228,7 @@
         <v>22</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>22</v>
@@ -3173,10 +3240,10 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA15" t="n">
         <v>27</v>
@@ -3185,7 +3252,7 @@
         <v>15</v>
       </c>
       <c r="BC15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3352,13 +3419,13 @@
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA16" t="n">
         <v>30</v>
@@ -3367,7 +3434,7 @@
         <v>27</v>
       </c>
       <c r="BC16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -3396,52 +3463,52 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.741</v>
+        <v>0.736</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J17" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.508</v>
+        <v>0.509</v>
       </c>
       <c r="L17" t="n">
         <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="N17" t="n">
         <v>0.368</v>
       </c>
       <c r="O17" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P17" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T17" t="n">
         <v>36.7</v>
@@ -3450,13 +3517,13 @@
         <v>23.5</v>
       </c>
       <c r="V17" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W17" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="X17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y17" t="n">
         <v>3</v>
@@ -3465,22 +3532,22 @@
         <v>20.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.1</v>
+        <v>104.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AD17" t="n">
         <v>29</v>
       </c>
       <c r="AE17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF17" t="n">
         <v>3</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>2</v>
       </c>
       <c r="AG17" t="n">
         <v>3</v>
@@ -3498,13 +3565,13 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM17" t="n">
         <v>13</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
         <v>13</v>
@@ -3528,7 +3595,7 @@
         <v>6</v>
       </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3683,13 +3750,13 @@
         <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN18" t="n">
         <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP18" t="n">
         <v>27</v>
@@ -3728,7 +3795,7 @@
         <v>17</v>
       </c>
       <c r="BB18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="n">
         <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" t="n">
-        <v>0.482</v>
+        <v>0.491</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,7 +3845,7 @@
         <v>38.5</v>
       </c>
       <c r="J19" t="n">
-        <v>87.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="K19" t="n">
         <v>0.438</v>
@@ -3787,43 +3854,43 @@
         <v>7.6</v>
       </c>
       <c r="M19" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="N19" t="n">
         <v>0.345</v>
       </c>
       <c r="O19" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P19" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R19" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S19" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="T19" t="n">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="U19" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V19" t="n">
         <v>13.8</v>
       </c>
       <c r="W19" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z19" t="n">
         <v>18.1</v>
@@ -3832,28 +3899,28 @@
         <v>23.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ19" t="n">
         <v>3</v>
@@ -3868,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3877,10 +3944,10 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS19" t="n">
         <v>8</v>
@@ -3895,7 +3962,7 @@
         <v>7</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3913,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="BC19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4062,13 +4129,13 @@
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-1.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
         <v>23</v>
@@ -4223,7 +4290,7 @@
         <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4232,7 +4299,7 @@
         <v>6</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4244,7 +4311,7 @@
         <v>21</v>
       </c>
       <c r="AR21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
@@ -4277,7 +4344,7 @@
         <v>21</v>
       </c>
       <c r="BC21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -4306,37 +4373,37 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" t="n">
         <v>43</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
-        <v>0.754</v>
+        <v>0.768</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J22" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.474</v>
       </c>
       <c r="L22" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O22" t="n">
         <v>19.4</v>
@@ -4351,13 +4418,13 @@
         <v>11</v>
       </c>
       <c r="S22" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T22" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U22" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V22" t="n">
         <v>15.8</v>
@@ -4369,31 +4436,31 @@
         <v>6.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.8</v>
+        <v>104.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
         <v>26</v>
@@ -4411,10 +4478,10 @@
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4450,7 +4517,7 @@
         <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="n">
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" t="n">
-        <v>0.293</v>
+        <v>0.298</v>
       </c>
       <c r="H23" t="n">
         <v>48.8</v>
@@ -4506,7 +4573,7 @@
         <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K23" t="n">
         <v>0.442</v>
@@ -4515,16 +4582,16 @@
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N23" t="n">
         <v>0.352</v>
       </c>
       <c r="O23" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P23" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q23" t="n">
         <v>0.762</v>
@@ -4533,10 +4600,10 @@
         <v>9.300000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T23" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U23" t="n">
         <v>20.8</v>
@@ -4545,25 +4612,25 @@
         <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4584,34 +4651,34 @@
         <v>22</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
         <v>23</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR23" t="n">
         <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
         <v>23</v>
@@ -4620,7 +4687,7 @@
         <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4629,10 +4696,10 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4641,7 +4708,7 @@
         <v>24</v>
       </c>
       <c r="BC23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
       </c>
       <c r="AF24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
         <v>29</v>
@@ -4790,7 +4857,7 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS24" t="n">
         <v>14</v>
@@ -4808,13 +4875,13 @@
         <v>2</v>
       </c>
       <c r="AX24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="n">
         <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>0.611</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4882,34 +4949,34 @@
         <v>25.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O25" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P25" t="n">
         <v>24.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R25" t="n">
         <v>11.5</v>
       </c>
       <c r="S25" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="T25" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U25" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="V25" t="n">
         <v>15.2</v>
       </c>
       <c r="W25" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X25" t="n">
         <v>4.9</v>
@@ -4918,19 +4985,19 @@
         <v>4.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA25" t="n">
         <v>21.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4939,7 +5006,7 @@
         <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH25" t="n">
         <v>19</v>
@@ -4954,19 +5021,19 @@
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
         <v>10</v>
       </c>
       <c r="AP25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ25" t="n">
         <v>15</v>
@@ -4987,10 +5054,10 @@
         <v>19</v>
       </c>
       <c r="AW25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="n">
         <v>18</v>
       </c>
       <c r="G26" t="n">
-        <v>0.679</v>
+        <v>0.673</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J26" t="n">
-        <v>88</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L26" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.381</v>
+        <v>0.379</v>
       </c>
       <c r="O26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P26" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.822</v>
+        <v>0.82</v>
       </c>
       <c r="R26" t="n">
         <v>12.7</v>
@@ -5085,7 +5152,7 @@
         <v>46.1</v>
       </c>
       <c r="U26" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V26" t="n">
         <v>13.7</v>
@@ -5094,25 +5161,25 @@
         <v>5.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB26" t="n">
         <v>107.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -5124,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5133,16 +5200,16 @@
         <v>2</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
       </c>
       <c r="AM26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN26" t="n">
         <v>4</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
         <v>6</v>
@@ -5163,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5172,13 +5239,13 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA26" t="n">
         <v>15</v>
@@ -5187,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="BC26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" t="n">
         <v>36</v>
       </c>
       <c r="G27" t="n">
-        <v>0.357</v>
+        <v>0.345</v>
       </c>
       <c r="H27" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I27" t="n">
         <v>37.1</v>
       </c>
       <c r="J27" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L27" t="n">
         <v>6.6</v>
       </c>
       <c r="M27" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O27" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P27" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.778</v>
+        <v>0.776</v>
       </c>
       <c r="R27" t="n">
         <v>11.9</v>
@@ -5270,13 +5337,13 @@
         <v>19.3</v>
       </c>
       <c r="V27" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W27" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X27" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
         <v>5.6</v>
@@ -5285,16 +5352,16 @@
         <v>22.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-1.9</v>
+        <v>-2.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
@@ -5318,13 +5385,13 @@
         <v>17</v>
       </c>
       <c r="AL27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM27" t="n">
         <v>24</v>
       </c>
-      <c r="AM27" t="n">
-        <v>25</v>
-      </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5339,7 +5406,7 @@
         <v>9</v>
       </c>
       <c r="AS27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT27" t="n">
         <v>12</v>
@@ -5348,13 +5415,13 @@
         <v>29</v>
       </c>
       <c r="AV27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AY27" t="n">
         <v>24</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>5.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5494,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM28" t="n">
         <v>19</v>
@@ -5515,7 +5582,7 @@
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5530,13 +5597,13 @@
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW28" t="n">
         <v>18</v>
       </c>
       <c r="AX28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY28" t="n">
         <v>18</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -5580,43 +5647,43 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" t="n">
         <v>25</v>
       </c>
       <c r="G29" t="n">
-        <v>0.554</v>
+        <v>0.545</v>
       </c>
       <c r="H29" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>82.3</v>
+        <v>82.7</v>
       </c>
       <c r="K29" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L29" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O29" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P29" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="Q29" t="n">
         <v>0.775</v>
@@ -5625,19 +5692,19 @@
         <v>11.9</v>
       </c>
       <c r="S29" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="T29" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U29" t="n">
         <v>21</v>
       </c>
       <c r="V29" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="W29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
         <v>4.3</v>
@@ -5652,16 +5719,16 @@
         <v>21.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>12</v>
@@ -5670,16 +5737,16 @@
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
         <v>10</v>
@@ -5691,28 +5758,28 @@
         <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ29" t="n">
         <v>9</v>
       </c>
       <c r="AR29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS29" t="n">
         <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW29" t="n">
         <v>25</v>
@@ -5724,7 +5791,7 @@
         <v>14</v>
       </c>
       <c r="AZ29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
         <v>6</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-6.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF30" t="n">
         <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
@@ -5861,10 +5928,10 @@
         <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
@@ -5894,7 +5961,7 @@
         <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW30" t="n">
         <v>26</v>
@@ -5909,7 +5976,7 @@
         <v>17</v>
       </c>
       <c r="BA30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" t="n">
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.491</v>
       </c>
       <c r="H31" t="n">
         <v>48.8</v>
@@ -5962,10 +6029,10 @@
         <v>38.1</v>
       </c>
       <c r="J31" t="n">
-        <v>84.5</v>
+        <v>84.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L31" t="n">
         <v>7.8</v>
@@ -5974,31 +6041,31 @@
         <v>20.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O31" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P31" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.727</v>
+        <v>0.729</v>
       </c>
       <c r="R31" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T31" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U31" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V31" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W31" t="n">
         <v>8.6</v>
@@ -6007,22 +6074,22 @@
         <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6043,7 +6110,7 @@
         <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6052,31 +6119,31 @@
         <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT31" t="n">
         <v>19</v>
       </c>
-      <c r="AS31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>17</v>
-      </c>
       <c r="AU31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW31" t="n">
         <v>7</v>
@@ -6091,13 +6158,13 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
       </c>
       <c r="BC31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-23-2013-14</t>
+          <t>2014-02-23</t>
         </is>
       </c>
     </row>
